--- a/0_1_Output_Data/5_ifoCAST_error_series_last_rep_since_2021/ifoCAst_errors_last_rep_latest_since_2021.xlsx
+++ b/0_1_Output_Data/5_ifoCAST_error_series_last_rep_since_2021/ifoCAst_errors_last_rep_latest_since_2021.xlsx
@@ -583,12 +583,15 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.2315426864241067</v>
+        <v>0.1647551661493167</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0.331651578</v>
       </c>
     </row>
     <row r="21" spans="1:2">
